--- a/team_specific_matrix/Northern Ariz._B.xlsx
+++ b/team_specific_matrix/Northern Ariz._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.19921875</v>
+        <v>0.1959654178674352</v>
       </c>
       <c r="C2">
-        <v>0.55078125</v>
+        <v>0.5619596541786743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02734375</v>
+        <v>0.02881844380403458</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.140625</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08203125</v>
+        <v>0.08645533141210375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006944444444444444</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C3">
-        <v>0.006944444444444444</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02083333333333333</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7361111111111112</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2291666666666667</v>
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8064516129032258</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05917159763313609</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04733727810650887</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2485207100591716</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02366863905325444</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2011834319526627</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.05917159763313609</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="S6">
-        <v>0.3609467455621302</v>
+        <v>0.3395348837209302</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1007194244604317</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04316546762589928</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03597122302158273</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1870503597122302</v>
+        <v>0.1746987951807229</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02877697841726619</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2014388489208633</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="R7">
-        <v>0.1007194244604317</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="S7">
-        <v>0.302158273381295</v>
+        <v>0.2951807228915663</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08307692307692308</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02153846153846154</v>
+        <v>0.01627906976744186</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05846153846153846</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.12</v>
+        <v>0.1186046511627907</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02461538461538462</v>
+        <v>0.03023255813953488</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1907692307692308</v>
+        <v>0.2046511627906977</v>
       </c>
       <c r="R8">
-        <v>0.07384615384615385</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="S8">
-        <v>0.4276923076923077</v>
+        <v>0.4069767441860465</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09558823529411764</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007352941176470588</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1102941176470588</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1176470588235294</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01470588235294118</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1838235294117647</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="R9">
-        <v>0.125</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="S9">
-        <v>0.3455882352941176</v>
+        <v>0.3772455089820359</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.134944612286002</v>
+        <v>0.1391437308868501</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01812688821752266</v>
+        <v>0.02446483180428135</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06948640483383686</v>
+        <v>0.06345565749235474</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1158106747230614</v>
+        <v>0.1108562691131498</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02517623363544814</v>
+        <v>0.02828746177370031</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2306143001007049</v>
+        <v>0.2285932721712538</v>
       </c>
       <c r="R10">
-        <v>0.07754279959718026</v>
+        <v>0.07415902140672782</v>
       </c>
       <c r="S10">
-        <v>0.3282980866062437</v>
+        <v>0.331039755351682</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1509433962264151</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08490566037735849</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.2028301886792453</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L11">
-        <v>0.5424528301886793</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01886792452830189</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7377049180327869</v>
+        <v>0.7103448275862069</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2049180327868853</v>
+        <v>0.2275862068965517</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L12">
-        <v>0.04918032786885246</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4848484848484849</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02409638554216868</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.144578313253012</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="I15">
-        <v>0.04216867469879518</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="J15">
-        <v>0.3132530120481928</v>
+        <v>0.316017316017316</v>
       </c>
       <c r="K15">
-        <v>0.07228915662650602</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006024096385542169</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05421686746987952</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3433734939759036</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0124223602484472</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1987577639751553</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="I16">
-        <v>0.06832298136645963</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J16">
-        <v>0.4472049689440994</v>
+        <v>0.4562211981566821</v>
       </c>
       <c r="K16">
-        <v>0.06211180124223602</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01863354037267081</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04968944099378882</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02964959568733154</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2129380053908356</v>
+        <v>0.2116182572614108</v>
       </c>
       <c r="I17">
-        <v>0.09703504043126684</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.454356846473029</v>
       </c>
       <c r="K17">
-        <v>0.0862533692722372</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02425876010781671</v>
+        <v>0.02697095435684647</v>
       </c>
       <c r="N17">
-        <v>0.002695417789757413</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O17">
-        <v>0.05121293800539083</v>
+        <v>0.04771784232365145</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0673854447439353</v>
+        <v>0.06431535269709543</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007042253521126761</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1408450704225352</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="I18">
-        <v>0.09859154929577464</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.5114942528735632</v>
       </c>
       <c r="K18">
-        <v>0.06338028169014084</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0352112676056338</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06338028169014084</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09154929577464789</v>
+        <v>0.07471264367816093</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01393728222996516</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2055749128919861</v>
+        <v>0.2107142857142857</v>
       </c>
       <c r="I19">
-        <v>0.08013937282229965</v>
+        <v>0.07410714285714286</v>
       </c>
       <c r="J19">
-        <v>0.4018583042973287</v>
+        <v>0.3991071428571429</v>
       </c>
       <c r="K19">
-        <v>0.1126596980255517</v>
+        <v>0.1035714285714286</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01742160278745645</v>
+        <v>0.01696428571428571</v>
       </c>
       <c r="N19">
-        <v>0.002322880371660859</v>
+        <v>0.001785714285714286</v>
       </c>
       <c r="O19">
-        <v>0.07200929152148665</v>
+        <v>0.08125</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09407665505226481</v>
+        <v>0.09285714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Ariz._B.xlsx
+++ b/team_specific_matrix/Northern Ariz._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1959654178674352</v>
+        <v>0.1994818652849741</v>
       </c>
       <c r="C2">
-        <v>0.5619596541786743</v>
+        <v>0.5544041450777202</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02881844380403458</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1268011527377522</v>
+        <v>0.1373056994818653</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08645533141210375</v>
+        <v>0.08290155440414508</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C3">
-        <v>0.0101010101010101</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03535353535353535</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7424242424242424</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.202020202020202</v>
+        <v>0.1963470319634703</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04347826086956522</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7391304347826086</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2173913043478261</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06046511627906977</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04651162790697674</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2790697674418605</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0186046511627907</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="R6">
-        <v>0.05581395348837209</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.3395348837209302</v>
+        <v>0.3205128205128205</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108433734939759</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03614457831325301</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03012048192771084</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1746987951807229</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04216867469879518</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2168674698795181</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="R7">
-        <v>0.0963855421686747</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.2951807228915663</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09302325581395349</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01627906976744186</v>
+        <v>0.01656314699792961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05813953488372093</v>
+        <v>0.06004140786749482</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1186046511627907</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03023255813953488</v>
+        <v>0.03312629399585922</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2046511627906977</v>
+        <v>0.1987577639751553</v>
       </c>
       <c r="R8">
-        <v>0.07209302325581396</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="S8">
-        <v>0.4069767441860465</v>
+        <v>0.4078674948240166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1017964071856287</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01197604790419162</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1017964071856287</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1077844311377246</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02994011976047904</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.155688622754491</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="R9">
-        <v>0.1137724550898204</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="S9">
-        <v>0.3772455089820359</v>
+        <v>0.3701657458563536</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1391437308868501</v>
+        <v>0.134575569358178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02446483180428135</v>
+        <v>0.02691511387163561</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06345565749235474</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1108562691131498</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02828746177370031</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2285932721712538</v>
+        <v>0.233264320220842</v>
       </c>
       <c r="R10">
-        <v>0.07415902140672782</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="S10">
-        <v>0.331039755351682</v>
+        <v>0.3285024154589372</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1538461538461539</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.09602649006622517</v>
       </c>
       <c r="K11">
-        <v>0.2115384615384615</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L11">
-        <v>0.5192307692307693</v>
+        <v>0.5264900662251656</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01538461538461539</v>
+        <v>0.01324503311258278</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7103448275862069</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2275862068965517</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="K12">
-        <v>0.01379310344827586</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L12">
-        <v>0.04137931034482759</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006896551724137931</v>
+        <v>0.01744186046511628</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5681818181818182</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06818181818181818</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02597402597402598</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1341991341991342</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="I15">
-        <v>0.04329004329004329</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="J15">
-        <v>0.316017316017316</v>
+        <v>0.3115384615384615</v>
       </c>
       <c r="K15">
-        <v>0.05627705627705628</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004329004329004329</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04329004329004329</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3766233766233766</v>
+        <v>0.3730769230769231</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02304147465437788</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1981566820276498</v>
+        <v>0.199203187250996</v>
       </c>
       <c r="I16">
-        <v>0.06451612903225806</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="J16">
-        <v>0.4562211981566821</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="K16">
-        <v>0.06912442396313365</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0184331797235023</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04147465437788019</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1394422310756972</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02282157676348548</v>
+        <v>0.02226345083487941</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2116182572614108</v>
+        <v>0.2133580705009276</v>
       </c>
       <c r="I17">
-        <v>0.0954356846473029</v>
+        <v>0.08905380333951762</v>
       </c>
       <c r="J17">
-        <v>0.454356846473029</v>
+        <v>0.4452690166975881</v>
       </c>
       <c r="K17">
-        <v>0.07468879668049792</v>
+        <v>0.08348794063079777</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02697095435684647</v>
+        <v>0.02968460111317254</v>
       </c>
       <c r="N17">
-        <v>0.002074688796680498</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="O17">
-        <v>0.04771784232365145</v>
+        <v>0.05009276437847866</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06431535269709543</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005747126436781609</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1436781609195402</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="I18">
-        <v>0.08620689655172414</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="J18">
-        <v>0.5114942528735632</v>
+        <v>0.4922279792746114</v>
       </c>
       <c r="K18">
-        <v>0.07471264367816093</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04022988505747126</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06321839080459771</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07471264367816093</v>
+        <v>0.09326424870466321</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01964285714285714</v>
+        <v>0.01832669322709163</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2107142857142857</v>
+        <v>0.2111553784860558</v>
       </c>
       <c r="I19">
-        <v>0.07410714285714286</v>
+        <v>0.0749003984063745</v>
       </c>
       <c r="J19">
-        <v>0.3991071428571429</v>
+        <v>0.3968127490039841</v>
       </c>
       <c r="K19">
-        <v>0.1035714285714286</v>
+        <v>0.1043824701195219</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01696428571428571</v>
+        <v>0.01673306772908367</v>
       </c>
       <c r="N19">
-        <v>0.001785714285714286</v>
+        <v>0.001593625498007968</v>
       </c>
       <c r="O19">
-        <v>0.08125</v>
+        <v>0.07888446215139443</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09285714285714286</v>
+        <v>0.09721115537848606</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Ariz._B.xlsx
+++ b/team_specific_matrix/Northern Ariz._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1994818652849741</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="C2">
-        <v>0.5544041450777202</v>
+        <v>0.5586734693877551</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02590673575129534</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1373056994818653</v>
+        <v>0.1352040816326531</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08290155440414508</v>
+        <v>0.08418367346938775</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0091324200913242</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C3">
-        <v>0.0091324200913242</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0319634703196347</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7534246575342466</v>
+        <v>0.7544642857142857</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1963470319634703</v>
+        <v>0.1964285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2622950819672131</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0641025641025641</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04700854700854701</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2905982905982906</v>
+        <v>0.2809917355371901</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0170940170940171</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2051282051282051</v>
+        <v>0.2190082644628099</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="S6">
-        <v>0.3205128205128205</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1161616161616162</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04545454545454546</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0303030303030303</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1717171717171717</v>
+        <v>0.1658536585365854</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04040404040404041</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2121212121212121</v>
+        <v>0.2146341463414634</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S7">
-        <v>0.2929292929292929</v>
+        <v>0.3024390243902439</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09937888198757763</v>
+        <v>0.1002004008016032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01656314699792961</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06004140786749482</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1118012422360248</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03312629399585922</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1987577639751553</v>
+        <v>0.2044088176352706</v>
       </c>
       <c r="R8">
-        <v>0.07246376811594203</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="S8">
-        <v>0.4078674948240166</v>
+        <v>0.406813627254509</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09944751381215469</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02762430939226519</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09392265193370165</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1160220994475138</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03314917127071823</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1491712707182321</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="R9">
-        <v>0.1104972375690608</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="S9">
-        <v>0.3701657458563536</v>
+        <v>0.374331550802139</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.134575569358178</v>
+        <v>0.1325706594885599</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02691511387163561</v>
+        <v>0.02624495289367429</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06211180124223602</v>
+        <v>0.06527590847913863</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1111111111111111</v>
+        <v>0.1083445491251682</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02898550724637681</v>
+        <v>0.02826379542395693</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.233264320220842</v>
+        <v>0.2388963660834455</v>
       </c>
       <c r="R10">
-        <v>0.07453416149068323</v>
+        <v>0.07267833109017496</v>
       </c>
       <c r="S10">
-        <v>0.3285024154589372</v>
+        <v>0.3277254374158816</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.152317880794702</v>
+        <v>0.1535947712418301</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09602649006622517</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="K11">
-        <v>0.2119205298013245</v>
+        <v>0.2124183006535948</v>
       </c>
       <c r="L11">
-        <v>0.5264900662251656</v>
+        <v>0.5261437908496732</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01324503311258278</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7325581395348837</v>
+        <v>0.7298850574712644</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1976744186046512</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="K12">
-        <v>0.01162790697674419</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="L12">
-        <v>0.04069767441860465</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01744186046511628</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5769230769230769</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3461538461538461</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02307692307692308</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1307692307692308</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I15">
-        <v>0.04230769230769231</v>
+        <v>0.04150943396226415</v>
       </c>
       <c r="J15">
-        <v>0.3115384615384615</v>
+        <v>0.3169811320754717</v>
       </c>
       <c r="K15">
-        <v>0.06538461538461539</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003846153846153846</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05</v>
+        <v>0.04905660377358491</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3730769230769231</v>
+        <v>0.369811320754717</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0199203187250996</v>
+        <v>0.01953125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.199203187250996</v>
+        <v>0.203125</v>
       </c>
       <c r="I16">
-        <v>0.05577689243027888</v>
+        <v>0.0546875</v>
       </c>
       <c r="J16">
-        <v>0.4581673306772908</v>
+        <v>0.453125</v>
       </c>
       <c r="K16">
-        <v>0.06772908366533864</v>
+        <v>0.06640625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0199203187250996</v>
+        <v>0.0234375</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0398406374501992</v>
+        <v>0.0390625</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1394422310756972</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02226345083487941</v>
+        <v>0.02101576182136602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2133580705009276</v>
+        <v>0.2101576182136602</v>
       </c>
       <c r="I17">
-        <v>0.08905380333951762</v>
+        <v>0.0893169877408056</v>
       </c>
       <c r="J17">
-        <v>0.4452690166975881</v>
+        <v>0.4430823117338004</v>
       </c>
       <c r="K17">
-        <v>0.08348794063079777</v>
+        <v>0.08056042031523643</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02968460111317254</v>
+        <v>0.03502626970227671</v>
       </c>
       <c r="N17">
-        <v>0.001855287569573284</v>
+        <v>0.001751313485113835</v>
       </c>
       <c r="O17">
-        <v>0.05009276437847866</v>
+        <v>0.05078809106830123</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06493506493506493</v>
+        <v>0.06830122591943957</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0155440414507772</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1347150259067358</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="I18">
-        <v>0.07772020725388601</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0.4922279792746114</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K18">
-        <v>0.08290155440414508</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04663212435233161</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05699481865284974</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09326424870466321</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01832669322709163</v>
+        <v>0.0178432893716059</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2111553784860558</v>
+        <v>0.2110162916989915</v>
       </c>
       <c r="I19">
-        <v>0.0749003984063745</v>
+        <v>0.07525213343677269</v>
       </c>
       <c r="J19">
-        <v>0.3968127490039841</v>
+        <v>0.4003103180760279</v>
       </c>
       <c r="K19">
-        <v>0.1043824701195219</v>
+        <v>0.1031807602792863</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01673306772908367</v>
+        <v>0.01706749418153607</v>
       </c>
       <c r="N19">
-        <v>0.001593625498007968</v>
+        <v>0.001551590380139643</v>
       </c>
       <c r="O19">
-        <v>0.07888446215139443</v>
+        <v>0.07835531419705198</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09721115537848606</v>
+        <v>0.09542280837858805</v>
       </c>
     </row>
   </sheetData>
